--- a/pv_result_0_N.xlsx
+++ b/pv_result_0_N.xlsx
@@ -450,10 +450,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.01866996341980674</v>
+        <v>-0.0179435341421375</v>
       </c>
       <c r="D2">
-        <v>0.05570326954030251</v>
+        <v>0.05447788118582902</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.0376926383745362</v>
+        <v>-0.05293034893372273</v>
       </c>
       <c r="D3">
-        <v>0.1912418763465965</v>
+        <v>0.05508853719057276</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -496,10 +496,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.04502647394530687</v>
+        <v>-0.01228277805480463</v>
       </c>
       <c r="D4">
-        <v>0.01197700535625746</v>
+        <v>0.4731000229233601</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,10 +519,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.03402302275963474</v>
+        <v>0.03376507129106896</v>
       </c>
       <c r="D5">
-        <v>0.05092143455319835</v>
+        <v>0.04206804894572637</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.000198675620744276</v>
+        <v>-0.009527946517235332</v>
       </c>
       <c r="D6">
-        <v>0.9890997110680966</v>
+        <v>0.4934304855082012</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>

--- a/pv_result_0_N.xlsx
+++ b/pv_result_0_N.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>CONTENT</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>STAT_COUNT</t>
+  </si>
+  <si>
+    <t>GAP_COUNT</t>
   </si>
   <si>
     <t>F</t>
@@ -416,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,120 +444,138 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0179435341421375</v>
+        <v>-0.01774292421958362</v>
       </c>
       <c r="D2">
-        <v>0.05447788118582902</v>
+        <v>0.05715078679560203</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.05293034893372273</v>
+        <v>-0.05291567405110543</v>
       </c>
       <c r="D3">
-        <v>0.05508853719057276</v>
+        <v>0.05507989572735901</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.01228277805480463</v>
+        <v>-0.01226974464195893</v>
       </c>
       <c r="D4">
-        <v>0.4731000229233601</v>
+        <v>0.4734312312698133</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.03376507129106896</v>
+        <v>0.0337659659174949</v>
       </c>
       <c r="D5">
-        <v>0.04206804894572637</v>
+        <v>0.04199852126773797</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.009527946517235332</v>
+        <v>-0.009523484014344509</v>
       </c>
       <c r="D6">
-        <v>0.4934304855082012</v>
+        <v>0.4934977014349131</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pv_result_0_N.xlsx
+++ b/pv_result_0_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.01774292421958362</v>
+        <v>-0.01866996341981385</v>
       </c>
       <c r="D2">
-        <v>0.05715078679560203</v>
+        <v>0.05570326954021178</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.05291567405110543</v>
+        <v>-0.03769263837453498</v>
       </c>
       <c r="D3">
-        <v>0.05507989572735901</v>
+        <v>0.1912418763466149</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.01226974464195893</v>
+        <v>-0.04502647394530793</v>
       </c>
       <c r="D4">
-        <v>0.4734312312698133</v>
+        <v>0.01197700535625624</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.0337659659174949</v>
+        <v>-0.03402302275963585</v>
       </c>
       <c r="D5">
-        <v>0.04199852126773797</v>
+        <v>0.0509214345531929</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.009523484014344509</v>
+        <v>0.0001986756207435821</v>
       </c>
       <c r="D6">
-        <v>0.4934977014349131</v>
+        <v>0.9890997110681348</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pv_result_0_N.xlsx
+++ b/pv_result_0_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.01866996341981385</v>
+        <v>-0.01833000518164962</v>
       </c>
       <c r="D2">
-        <v>0.05570326954021178</v>
+        <v>0.05673723597268741</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.03769263837453498</v>
+        <v>-0.04524530964161499</v>
       </c>
       <c r="D3">
-        <v>0.1912418763466149</v>
+        <v>0.08843401866042962</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04502647394530793</v>
+        <v>-0.04108176296570594</v>
       </c>
       <c r="D4">
-        <v>0.01197700535625624</v>
+        <v>0.01874744185960867</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03402302275963585</v>
+        <v>-0.03432860905825974</v>
       </c>
       <c r="D5">
-        <v>0.0509214345531929</v>
+        <v>0.04214179515866738</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0001986756207435821</v>
+        <v>0.004068906309968146</v>
       </c>
       <c r="D6">
-        <v>0.9890997110681348</v>
+        <v>0.7709759676617816</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/pv_result_0_N.xlsx
+++ b/pv_result_0_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.01833000518164962</v>
+        <v>-0.01847500025159175</v>
       </c>
       <c r="D2">
-        <v>0.05673723597268741</v>
+        <v>0.05823226281559086</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.04524530964161499</v>
+        <v>-0.03771194085876261</v>
       </c>
       <c r="D3">
-        <v>0.08843401866042962</v>
+        <v>0.1908893446260855</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04108176296570594</v>
+        <v>-0.0449965886357426</v>
       </c>
       <c r="D4">
-        <v>0.01874744185960867</v>
+        <v>0.01200940447383769</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03432860905825974</v>
+        <v>-0.03400255361696469</v>
       </c>
       <c r="D5">
-        <v>0.04214179515866738</v>
+        <v>0.05099513778456875</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.004068906309968146</v>
+        <v>0.0002065624370136462</v>
       </c>
       <c r="D6">
-        <v>0.7709759676617816</v>
+        <v>0.988663822005818</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/pv_result_0_N.xlsx
+++ b/pv_result_0_N.xlsx
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/pv_result_0_N.xlsx
+++ b/pv_result_0_N.xlsx
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
